--- a/code/lasso.estimated.coefficients.13Jul2023.xlsx
+++ b/code/lasso.estimated.coefficients.13Jul2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKSPACE\GIT\covid19-eng-lockdown\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4A0F3D73-6D6C-4D9E-B8C8-DDD1ECB90D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5407F62F-FA87-42A1-8C1B-E45DF5732A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
@@ -16,18 +16,15 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="lasso.estimated.coefficients.13" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'lasso.estimated.coefficients.13'!$A$1:$D$37</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="7" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="55">
   <si>
     <t>name</t>
   </si>
@@ -47,34 +44,64 @@
     <t>G1</t>
   </si>
   <si>
+    <t>%Median income HHs</t>
+  </si>
+  <si>
+    <t>HHs with 1 vehicle</t>
+  </si>
+  <si>
+    <t>Hospitals</t>
+  </si>
+  <si>
+    <t>%Self-employed</t>
+  </si>
+  <si>
+    <t>Cum. COVID-19 infection rates</t>
+  </si>
+  <si>
+    <t>Cum. COVID-19 moratlity rates</t>
+  </si>
+  <si>
+    <t>West Midlands</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>South West</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
     <t>%High income HHs</t>
   </si>
   <si>
-    <t>HHs with 1 vehicle</t>
-  </si>
-  <si>
-    <t>Hospitals</t>
-  </si>
-  <si>
-    <t>%Self-employed</t>
-  </si>
-  <si>
-    <t>Cum. COVID-19 infection rates</t>
-  </si>
-  <si>
-    <t>West Midlands</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>South West</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>%Median income HHs</t>
+    <t>%Social grade C1</t>
+  </si>
+  <si>
+    <t>Population den.</t>
+  </si>
+  <si>
+    <t>HHs with more than 3 vehicles</t>
+  </si>
+  <si>
+    <t>Parks</t>
+  </si>
+  <si>
+    <t>%Other Asian</t>
+  </si>
+  <si>
+    <t>%African</t>
+  </si>
+  <si>
+    <t>Yorkshire and the Humber</t>
+  </si>
+  <si>
+    <t>East of England</t>
+  </si>
+  <si>
+    <t>G3</t>
   </si>
   <si>
     <t>%more than 3 bed rooms</t>
@@ -83,55 +110,34 @@
     <t>North East</t>
   </si>
   <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>%Social grade C1</t>
-  </si>
-  <si>
-    <t>HHs with more than 3 vehicles</t>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>%Low income HHs</t>
   </si>
   <si>
     <t>%Caribbean</t>
   </si>
   <si>
-    <t>Cum. COVID-19 moratlity rates</t>
-  </si>
-  <si>
-    <t>Yorkshire and the Humber</t>
+    <t>%Other Black</t>
   </si>
   <si>
     <t>East Midlands</t>
   </si>
   <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>%Other Asian</t>
-  </si>
-  <si>
-    <t>%African</t>
-  </si>
-  <si>
-    <t>East of England</t>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
   <si>
     <t>Row Labels</t>
   </si>
   <si>
-    <t>(blank)</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Column Labels</t>
-  </si>
-  <si>
     <t>Sum of coefficient</t>
   </si>
   <si>
-    <t>Regions of England</t>
+    <t>Regions in England</t>
   </si>
   <si>
     <t>Socioeconomic</t>
@@ -143,12 +149,15 @@
     <t>Occupation</t>
   </si>
   <si>
-    <t>Hisuing type</t>
+    <t>Housing type</t>
   </si>
   <si>
     <t>Accessibility</t>
   </si>
   <si>
+    <t>Residential density</t>
+  </si>
+  <si>
     <t>Car availability</t>
   </si>
   <si>
@@ -173,49 +182,13 @@
     <t>Ethnic composition</t>
   </si>
   <si>
-    <t xml:space="preserve">Share of households in median household 
-income quintile at the national level
-</t>
-  </si>
-  <si>
-    <t>Share of households in top household 
-income quintile at national level</t>
-  </si>
-  <si>
-    <t>Share of Social Grade C1 (lower middle class)</t>
-  </si>
-  <si>
-    <t>Share of dwellings with ≥3 bedrooms</t>
-  </si>
-  <si>
-    <t>Share of households with 1 vehicle</t>
-  </si>
-  <si>
-    <t>Share of households with ≥3 vehicles</t>
-  </si>
-  <si>
-    <t>Hospitals (per 1,000 inhabitants)</t>
-  </si>
-  <si>
-    <t>Share of self-employed workers in the resident
-population aged 16-74</t>
-  </si>
-  <si>
-    <t>Cumulative COVID-19 reported cases per 100,000 
-resident population before lockdown</t>
-  </si>
-  <si>
-    <t>Cumulative COVID-19 reported deaths per 100,000
-resident population before lockdown</t>
-  </si>
-  <si>
-    <t>Percentage of African</t>
-  </si>
-  <si>
-    <t>Perentage of Caribbean</t>
-  </si>
-  <si>
-    <t>Percentage of Other Asian</t>
+    <t>Domains</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>%Bangladeshi</t>
   </si>
 </sst>
 </file>
@@ -223,7 +196,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -709,10 +682,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -772,51 +743,55 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Won Do Lee" refreshedDate="45120.352931597219" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="37">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Won Do Lee" refreshedDate="45120.509738310182" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="55">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D1048576" sheet="lasso.estimated.coefficients.13"/>
+    <worksheetSource ref="A1:D56" sheet="lasso.estimated.coefficients.13"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="name" numFmtId="0">
-      <sharedItems containsBlank="1" count="22">
+      <sharedItems count="27">
         <s v="Constant"/>
-        <s v="%High income HHs"/>
+        <s v="%Median income HHs"/>
         <s v="HHs with 1 vehicle"/>
         <s v="Hospitals"/>
         <s v="%Self-employed"/>
+        <s v="%Bangladeshi"/>
         <s v="Cum. COVID-19 infection rates"/>
+        <s v="Cum. COVID-19 moratlity rates"/>
         <s v="West Midlands"/>
         <s v="London"/>
         <s v="South West"/>
-        <s v="%Median income HHs"/>
+        <s v="%High income HHs"/>
+        <s v="%Social grade C1"/>
+        <s v="Population den."/>
+        <s v="HHs with more than 3 vehicles"/>
+        <s v="Parks"/>
+        <s v="%Other Asian"/>
+        <s v="%African"/>
+        <s v="Yorkshire and the Humber"/>
+        <s v="East of England"/>
         <s v="%more than 3 bed rooms"/>
         <s v="North East"/>
-        <s v="%Social grade C1"/>
-        <s v="HHs with more than 3 vehicles"/>
+        <s v="%Low income HHs"/>
         <s v="%Caribbean"/>
-        <s v="Cum. COVID-19 moratlity rates"/>
-        <s v="Yorkshire and the Humber"/>
+        <s v="%Other Black"/>
         <s v="East Midlands"/>
-        <s v="%Other Asian"/>
-        <s v="%African"/>
-        <s v="East of England"/>
-        <m/>
+        <s v="%Black" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="coefficient" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-0.64528233217900299" maxValue="1.6432813666258399"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.84183508557071596" maxValue="1.7698894692699501"/>
     </cacheField>
     <cacheField name="group" numFmtId="0">
-      <sharedItems containsBlank="1" count="5">
+      <sharedItems count="4">
         <s v="G1"/>
         <s v="G2"/>
         <s v="G3"/>
         <s v="G4"/>
-        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="name2" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -828,271 +803,383 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="37">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="55">
   <r>
     <x v="0"/>
-    <n v="-0.64528233217900299"/>
+    <n v="-0.59691166954488595"/>
     <x v="0"/>
     <s v="Constant"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="6.5927395432788305E-2"/>
+    <n v="-6.1642741299689201E-3"/>
     <x v="0"/>
-    <s v="%High income HHs"/>
+    <s v="%Median income HHs"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="-0.454013277086038"/>
+    <n v="-0.47928695559050799"/>
     <x v="0"/>
     <s v="HHs with 1 vehicle"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="6.6624676294355201E-2"/>
+    <n v="9.7433962704542507E-2"/>
     <x v="0"/>
     <s v="Hospitals"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="0.64794731557663299"/>
+    <n v="0.68822637084641303"/>
     <x v="0"/>
     <s v="%Self-employed"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="0.113815211285253"/>
+    <n v="8.2016657680692904E-4"/>
+    <x v="0"/>
+    <s v="%Bangladeshi"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0.117005360075284"/>
     <x v="0"/>
     <s v="Cum. COVID-19 infection rates"/>
   </r>
   <r>
-    <x v="6"/>
-    <n v="-5.27378097252649E-2"/>
+    <x v="7"/>
+    <n v="1.14470948163402E-2"/>
+    <x v="0"/>
+    <s v="Cum. COVID-19 moratlity rates"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="-0.41757408673489099"/>
     <x v="0"/>
     <s v="West Midlands"/>
   </r>
   <r>
-    <x v="7"/>
-    <n v="1.6432813666258399"/>
+    <x v="9"/>
+    <n v="1.7698894692699501"/>
     <x v="0"/>
     <s v="London"/>
   </r>
   <r>
-    <x v="8"/>
-    <n v="-0.23660232259553601"/>
+    <x v="10"/>
+    <n v="-0.56063901955677198"/>
     <x v="0"/>
     <s v="South West"/>
   </r>
   <r>
     <x v="0"/>
-    <n v="0.56486190646069401"/>
+    <n v="0.51761597855688701"/>
     <x v="1"/>
     <s v="Constant"/>
   </r>
   <r>
-    <x v="1"/>
-    <n v="-0.178291834277303"/>
+    <x v="11"/>
+    <n v="0.40760677411770402"/>
     <x v="1"/>
     <s v="%High income HHs"/>
   </r>
   <r>
-    <x v="9"/>
-    <n v="0.40271290538354998"/>
+    <x v="12"/>
+    <n v="0.31329596097627499"/>
     <x v="1"/>
-    <s v="%Median income HHs"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="0.193103527280066"/>
+    <s v="%Social grade C1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="-0.17982784414515501"/>
     <x v="1"/>
-    <s v="%more than 3 bed rooms"/>
+    <s v="Population den."/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1.30603405436748E-2"/>
+    <x v="1"/>
+    <s v="HHs with 1 vehicle"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="0.25498136342837402"/>
+    <x v="1"/>
+    <s v="HHs with more than 3 vehicles"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="-0.20605626054433701"/>
+    <x v="1"/>
+    <s v="Hospitals"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="-3.3393447821644197E-2"/>
+    <x v="1"/>
+    <s v="Parks"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="-8.0571668277080507E-3"/>
+    <n v="7.2684391356294897E-2"/>
     <x v="1"/>
     <s v="%Self-employed"/>
   </r>
   <r>
-    <x v="11"/>
-    <n v="0.27065570137313499"/>
+    <x v="5"/>
+    <n v="-8.2016657680692904E-4"/>
     <x v="1"/>
-    <s v="North East"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="0.17397828215347899"/>
+    <s v="%Bangladeshi"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="0.15297378707269599"/>
     <x v="1"/>
-    <s v="West Midlands"/>
+    <s v="%Other Asian"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="0.492967273592057"/>
+    <x v="1"/>
+    <s v="%African"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="-1.14470948163402E-2"/>
+    <x v="1"/>
+    <s v="Cum. COVID-19 moratlity rates"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="-7.2443761334292395E-2"/>
+    <x v="1"/>
+    <s v="Yorkshire and the Humber"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="4.3664122834842202E-2"/>
+    <x v="1"/>
+    <s v="East of England"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="-3.6761876928344997E-2"/>
+    <x v="1"/>
+    <s v="South West"/>
   </r>
   <r>
     <x v="0"/>
-    <n v="-0.406891526294266"/>
+    <n v="0.62835727581918499"/>
     <x v="2"/>
     <s v="Constant"/>
   </r>
   <r>
-    <x v="1"/>
-    <n v="-6.5927395432788305E-2"/>
+    <x v="11"/>
+    <n v="-0.28619243224228802"/>
     <x v="2"/>
     <s v="%High income HHs"/>
   </r>
   <r>
-    <x v="12"/>
-    <n v="-8.2036454915620102E-2"/>
+    <x v="1"/>
+    <n v="0.40267020449449897"/>
     <x v="2"/>
-    <s v="%Social grade C1"/>
-  </r>
-  <r>
+    <s v="%Median income HHs"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="0.26636817909591998"/>
     <x v="2"/>
-    <n v="0.145529176955703"/>
+    <s v="%more than 3 bed rooms"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="-1.30603405436748E-2"/>
     <x v="2"/>
     <s v="HHs with 1 vehicle"/>
   </r>
   <r>
-    <x v="13"/>
-    <n v="-0.63443981121682003"/>
+    <x v="3"/>
+    <n v="-8.67388087139692E-3"/>
     <x v="2"/>
-    <s v="HHs with more than 3 vehicles"/>
+    <s v="Hospitals"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="-0.438253631464259"/>
+    <n v="-7.2684391356294897E-2"/>
     <x v="2"/>
     <s v="%Self-employed"/>
   </r>
   <r>
-    <x v="14"/>
-    <n v="-0.133722214909022"/>
+    <x v="5"/>
+    <n v="4.2791405345911603E-2"/>
     <x v="2"/>
-    <s v="%Caribbean"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <n v="-7.6376466654939495E-2"/>
+    <s v="%Bangladeshi"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2.02139240871352E-2"/>
     <x v="2"/>
     <s v="Cum. COVID-19 moratlity rates"/>
   </r>
   <r>
-    <x v="16"/>
-    <n v="1.4500040092365001"/>
+    <x v="21"/>
+    <n v="0.43915336992437998"/>
     <x v="2"/>
-    <s v="Yorkshire and the Humber"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <n v="8.5268122877336705E-2"/>
+    <s v="North East"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="3.78222148076185E-2"/>
     <x v="2"/>
-    <s v="East Midlands"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="0.65488747119399704"/>
+    <s v="West Midlands"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="-3.3747224147525699E-2"/>
+    <x v="2"/>
+    <s v="East of England"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="-0.14800683907811199"/>
+    <x v="2"/>
+    <s v="London"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="3.6761876928344997E-2"/>
     <x v="2"/>
     <s v="South West"/>
   </r>
   <r>
     <x v="0"/>
-    <n v="0.48731195201257599"/>
+    <n v="-0.54906158483118594"/>
     <x v="3"/>
     <s v="Constant"/>
   </r>
   <r>
-    <x v="1"/>
-    <n v="0.45128240012729598"/>
+    <x v="22"/>
+    <n v="9.2439201755770598E-2"/>
     <x v="3"/>
-    <s v="%High income HHs"/>
+    <s v="%Low income HHs"/>
   </r>
   <r>
     <x v="12"/>
-    <n v="0.350980164121175"/>
+    <n v="-8.9066599073571603E-2"/>
     <x v="3"/>
     <s v="%Social grade C1"/>
   </r>
   <r>
-    <x v="13"/>
-    <n v="0.26352191905305999"/>
+    <x v="2"/>
+    <n v="0.145291844803278"/>
+    <x v="3"/>
+    <s v="HHs with 1 vehicle"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="-0.84183508557071596"/>
     <x v="3"/>
     <s v="HHs with more than 3 vehicles"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="-0.14231718534973001"/>
+    <n v="8.67388087139692E-3"/>
     <x v="3"/>
     <s v="Hospitals"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="8.0571668277080507E-3"/>
+    <n v="-0.53319300940985004"/>
     <x v="3"/>
     <s v="%Self-employed"/>
   </r>
   <r>
+    <x v="5"/>
+    <n v="-5.40936332792167E-2"/>
+    <x v="3"/>
+    <s v="%Bangladeshi"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="-0.203045696848215"/>
+    <x v="3"/>
+    <s v="%Caribbean"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="-0.11399373491279099"/>
+    <x v="3"/>
+    <s v="%Other Black"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="-8.8327489213213803E-2"/>
+    <x v="3"/>
+    <s v="Cum. COVID-19 moratlity rates"/>
+  </r>
+  <r>
     <x v="18"/>
-    <n v="0.11542310371357301"/>
+    <n v="1.6647366315691901"/>
     <x v="3"/>
-    <s v="%Other Asian"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <n v="0.383924799016445"/>
+    <s v="Yorkshire and the Humber"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="0.35636269243109903"/>
     <x v="3"/>
-    <s v="%African"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <n v="1.8440498445489201E-2"/>
+    <s v="East Midlands"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="1.0097784008541999"/>
     <x v="3"/>
-    <s v="East of England"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <m/>
-    <x v="4"/>
-    <m/>
+    <s v="South West"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:G27" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:F31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
-      <items count="23">
-        <item x="19"/>
-        <item x="14"/>
+      <items count="28">
+        <item x="17"/>
+        <item m="1" x="26"/>
+        <item x="23"/>
+        <item x="11"/>
+        <item x="22"/>
         <item x="1"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="18"/>
+        <item x="20"/>
+        <item x="16"/>
+        <item x="24"/>
         <item x="4"/>
         <item x="12"/>
         <item x="0"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="25"/>
+        <item x="19"/>
+        <item x="2"/>
+        <item x="14"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="21"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="18"/>
         <item x="5"/>
-        <item x="15"/>
-        <item x="17"/>
-        <item x="20"/>
-        <item x="2"/>
-        <item x="13"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="8"/>
-        <item x="6"/>
-        <item x="16"/>
-        <item x="21"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
-      <items count="6">
+      <items count="5">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
-        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1101,12 +1188,9 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="23">
+  <rowItems count="27">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
     <i>
       <x v="2"/>
@@ -1168,6 +1252,21 @@
     <i>
       <x v="21"/>
     </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -1175,7 +1274,7 @@
   <colFields count="1">
     <field x="2"/>
   </colFields>
-  <colItems count="6">
+  <colItems count="5">
     <i>
       <x/>
     </i>
@@ -1187,9 +1286,6 @@
     </i>
     <i>
       <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -1507,737 +1603,883 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:O27"/>
+  <dimension ref="A3:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="28.42578125" customWidth="1"/>
-    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="25" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
+      <c r="N4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <v>0.492967273592057</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
+        <v>0.492967273592057</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="5">
+        <v>-0.59691166954488595</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.51761597855688701</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.62835727581918499</v>
+      </c>
+      <c r="N5" s="5">
+        <v>-0.54906158483118594</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3">
-        <v>0.383924799016445</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3">
-        <v>0.383924799016445</v>
-      </c>
-      <c r="I5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="4">
-        <v>-0.64528233217900299</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0.56486190646069401</v>
-      </c>
-      <c r="N5" s="4">
-        <v>-0.406891526294266</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0.48731195201257599</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="3">
-        <v>-0.133722214909022</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3">
-        <v>-0.133722214909022</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4">
-        <v>0.27065570137313499</v>
-      </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>-0.203045696848215</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-0.203045696848215</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5">
+        <v>0.43915336992437998</v>
+      </c>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
+        <v>0.40760677411770402</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-0.28619243224228802</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
+        <v>0.121414341875416</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5">
+        <v>-7.2443761334292395E-2</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5">
+        <v>1.6647366315691901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <v>9.2439201755770598E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>9.2439201755770598E-2</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5">
+        <v>0.35636269243109903</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <v>6.5927395432788305E-2</v>
-      </c>
-      <c r="C7" s="3">
-        <v>-0.178291834277303</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-6.5927395432788305E-2</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.45128240012729598</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3">
-        <v>0.27299056584999298</v>
-      </c>
-      <c r="K7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4">
-        <v>1.4500040092365001</v>
-      </c>
-      <c r="O7" s="4"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3">
-        <v>0.40271290538354998</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3">
-        <v>0.40271290538354998</v>
-      </c>
-      <c r="K8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4">
-        <v>8.5268122877336705E-2</v>
-      </c>
-      <c r="O8" s="4"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3">
-        <v>0.193103527280066</v>
-      </c>
-      <c r="D9" s="3"/>
+      <c r="B9" s="3">
+        <v>-6.1642741299689201E-3</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
+        <v>0.40267020449449897</v>
+      </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3">
-        <v>0.193103527280066</v>
-      </c>
-      <c r="K9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="4">
-        <v>-5.27378097252649E-2</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0.17397828215347899</v>
-      </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F9" s="3">
+        <v>0.39650593036453008</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="5">
+        <v>-0.41757408673489099</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5">
+        <v>3.78222148076185E-2</v>
+      </c>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3">
-        <v>0.11542310371357301</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3">
-        <v>0.11542310371357301</v>
-      </c>
-      <c r="K10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4">
-        <v>1.8440498445489201E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D10" s="3">
+        <v>0.26636817909591998</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3">
+        <v>0.26636817909591998</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5">
+        <v>4.3664122834842202E-2</v>
+      </c>
+      <c r="M10" s="5">
+        <v>-3.3747224147525699E-2</v>
+      </c>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.64794731557663299</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B11" s="3"/>
       <c r="C11" s="3">
-        <v>-8.0571668277080507E-3</v>
-      </c>
-      <c r="D11" s="3">
-        <v>-0.438253631464259</v>
-      </c>
-      <c r="E11" s="3">
-        <v>8.0571668277080507E-3</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3">
-        <v>0.20969368411237396</v>
-      </c>
-      <c r="K11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="4">
-        <v>1.6432813666258399</v>
-      </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.15297378707269599</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3">
+        <v>0.15297378707269599</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1.7698894692699501</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5">
+        <v>-0.14800683907811199</v>
+      </c>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="3">
-        <v>-8.2036454915620102E-2</v>
-      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="3">
-        <v>0.350980164121175</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3">
-        <v>0.26894370920555488</v>
-      </c>
-      <c r="K12" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="4">
-        <v>-0.23660232259553601</v>
-      </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4">
-        <v>0.65488747119399704</v>
-      </c>
-      <c r="O12" s="4"/>
-    </row>
-    <row r="13" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+        <v>-0.11399373491279099</v>
+      </c>
+      <c r="F12" s="3">
+        <v>-0.11399373491279099</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="5">
+        <v>-0.56063901955677198</v>
+      </c>
+      <c r="L12" s="5">
+        <v>-3.6761876928344997E-2</v>
+      </c>
+      <c r="M12" s="5">
+        <v>3.6761876928344997E-2</v>
+      </c>
+      <c r="N12" s="5">
+        <v>1.0097784008541999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.68822637084641303</v>
+      </c>
+      <c r="C13" s="3">
+        <v>7.2684391356294897E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-7.2684391356294897E-2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>-0.53319300940985004</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.15503336143656299</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5">
+        <v>0.40760677411770402</v>
+      </c>
+      <c r="M13" s="5">
+        <v>-0.28619243224228802</v>
+      </c>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3">
+        <v>0.31329596097627499</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
+        <v>-8.9066599073571603E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.22422936190270337</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="5">
+        <v>-6.1642741299689201E-3</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5">
+        <v>0.40267020449449897</v>
+      </c>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="3">
-        <v>-0.64528233217900299</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.56486190646069401</v>
-      </c>
-      <c r="D13" s="3">
-        <v>-0.406891526294266</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.48731195201257599</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3">
-        <v>9.9920072216264089E-16</v>
-      </c>
-      <c r="I13" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4">
-        <v>0.40271290538354998</v>
-      </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-    </row>
-    <row r="14" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B15" s="3">
+        <v>-0.59691166954488595</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.51761597855688701</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.62835727581918499</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-0.54906158483118594</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1.1102230246251565E-16</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5">
+        <v>9.2439201755770598E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="3">
-        <v>0.113815211285253</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3">
-        <v>0.113815211285253</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L14" s="4">
-        <v>6.5927395432788305E-2</v>
-      </c>
-      <c r="M14" s="4">
-        <v>-0.178291834277303</v>
-      </c>
-      <c r="N14" s="4">
-        <v>-6.5927395432788305E-2</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0.45128240012729598</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3">
-        <v>-7.6376466654939495E-2</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3">
-        <v>-7.6376466654939495E-2</v>
-      </c>
-      <c r="J15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" t="s">
-        <v>50</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4">
-        <v>-8.2036454915620102E-2</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0.350980164121175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="3">
+        <v>0.117005360075284</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3">
+        <v>0.117005360075284</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5">
+        <v>0.31329596097627499</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5">
+        <v>-8.9066599073571603E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.14470948163402E-2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>-1.14470948163402E-2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2.02139240871352E-2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>-8.8327489213213803E-2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>-6.8113565126078607E-2</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5">
+        <v>0.26636817909591998</v>
+      </c>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3">
+        <v>0.35636269243109903</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.35636269243109903</v>
+      </c>
+      <c r="H18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5">
+        <v>-0.17982784414515501</v>
+      </c>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3">
-        <v>8.5268122877336705E-2</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3">
-        <v>8.5268122877336705E-2</v>
-      </c>
-      <c r="J16" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4">
-        <v>0.193103527280066</v>
-      </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3">
-        <v>1.8440498445489201E-2</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3">
-        <v>1.8440498445489201E-2</v>
-      </c>
-      <c r="I17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L17" s="4">
-        <v>-0.454013277086038</v>
-      </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4">
-        <v>0.145529176955703</v>
-      </c>
-      <c r="O17" s="4"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3">
+        <v>4.3664122834842202E-2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>-3.3747224147525699E-2</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3">
+        <v>9.9168986873165027E-3</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="3">
-        <v>-0.454013277086038</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3">
-        <v>0.145529176955703</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3">
-        <v>-0.308484100130335</v>
-      </c>
-      <c r="K18" t="s">
-        <v>53</v>
-      </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4">
-        <v>-0.63443981121682003</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0.26352191905305999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="K19" s="5">
+        <v>-0.47928695559050799</v>
+      </c>
+      <c r="L19" s="5">
+        <v>1.30603405436748E-2</v>
+      </c>
+      <c r="M19" s="5">
+        <v>-1.30603405436748E-2</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0.145291844803278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="3">
+        <v>-0.47928695559050799</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1.30603405436748E-2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>-1.30603405436748E-2</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.145291844803278</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-0.33399511078722999</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5">
+        <v>0.25498136342837402</v>
+      </c>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5">
+        <v>-0.84183508557071596</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3">
+        <v>0.25498136342837402</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
+        <v>-0.84183508557071596</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-0.58685372214234199</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="5">
+        <v>9.7433962704542507E-2</v>
+      </c>
+      <c r="L21" s="5">
+        <v>-0.20605626054433701</v>
+      </c>
+      <c r="M21" s="5">
+        <v>-8.67388087139692E-3</v>
+      </c>
+      <c r="N21" s="5">
+        <v>8.67388087139692E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3">
+        <v>9.7433962704542507E-2</v>
+      </c>
+      <c r="C22" s="3">
+        <v>-0.20605626054433701</v>
+      </c>
+      <c r="D22" s="3">
+        <v>-8.67388087139692E-3</v>
+      </c>
+      <c r="E22" s="3">
+        <v>8.67388087139692E-3</v>
+      </c>
+      <c r="F22" s="3">
+        <v>-0.1086222978397945</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3">
-        <v>-0.63443981121682003</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0.26352191905305999</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3">
-        <v>-0.37091789216376003</v>
-      </c>
-      <c r="J19" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19" t="s">
-        <v>54</v>
-      </c>
-      <c r="L19" s="4">
-        <v>6.6624676294355201E-2</v>
-      </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4">
-        <v>-0.14231718534973001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="3">
-        <v>6.6624676294355201E-2</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3">
-        <v>-0.14231718534973001</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3">
-        <v>-7.5692509055374807E-2</v>
-      </c>
-      <c r="I20" t="s">
-        <v>42</v>
-      </c>
-      <c r="J20" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L20" s="4">
-        <v>0.64794731557663299</v>
-      </c>
-      <c r="M20" s="4">
-        <v>-8.0571668277080507E-3</v>
-      </c>
-      <c r="N20" s="4">
-        <v>-0.438253631464259</v>
-      </c>
-      <c r="O20" s="4">
-        <v>8.0571668277080507E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3">
-        <v>1.6432813666258399</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3">
-        <v>1.6432813666258399</v>
-      </c>
-      <c r="I21" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L21" s="4">
-        <v>0.113815211285253</v>
-      </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-    </row>
-    <row r="22" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3">
-        <v>0.27065570137313499</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3">
-        <v>0.27065570137313499</v>
-      </c>
-      <c r="J22" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4">
-        <v>-7.6376466654939495E-2</v>
-      </c>
-      <c r="O22" s="4"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K22" s="5"/>
+      <c r="L22" s="5">
+        <v>-3.3393447821644197E-2</v>
+      </c>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="3">
-        <v>-0.23660232259553601</v>
+        <v>1.7698894692699501</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3">
-        <v>0.65488747119399704</v>
+        <v>-0.14800683907811199</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3">
-        <v>0.418285148598461</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="F23" s="3">
+        <v>1.6218826301918381</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K23" t="s">
-        <v>58</v>
-      </c>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4">
-        <v>0.383924799016445</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0.68822637084641303</v>
+      </c>
+      <c r="L23" s="5">
+        <v>7.2684391356294897E-2</v>
+      </c>
+      <c r="M23" s="5">
+        <v>-7.2684391356294897E-2</v>
+      </c>
+      <c r="N23" s="5">
+        <v>-0.53319300940985004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3">
+        <v>0.43915336992437998</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3">
+        <v>0.43915336992437998</v>
+      </c>
+      <c r="H24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0.117005360075284</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3">
+        <v>-3.3393447821644197E-2</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3">
+        <v>-3.3393447821644197E-2</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="3">
-        <v>-5.27378097252649E-2</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0.17397828215347899</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3">
-        <v>0.12124047242821409</v>
-      </c>
-      <c r="K24" t="s">
-        <v>59</v>
-      </c>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4">
-        <v>-0.133722214909022</v>
-      </c>
-      <c r="O24" s="4"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3">
-        <v>1.4500040092365001</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3">
-        <v>1.4500040092365001</v>
-      </c>
-      <c r="K25" t="s">
-        <v>60</v>
-      </c>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4">
-        <v>0.11542310371357301</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K25" s="5">
+        <v>1.14470948163402E-2</v>
+      </c>
+      <c r="L25" s="5">
+        <v>-1.14470948163402E-2</v>
+      </c>
+      <c r="M25" s="5">
+        <v>2.02139240871352E-2</v>
+      </c>
+      <c r="N25" s="5">
+        <v>-8.8327489213213803E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="C26" s="3">
+        <v>-0.17982784414515501</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F26" s="3">
+        <v>-0.17982784414515501</v>
+      </c>
+      <c r="H26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K26" s="5">
+        <v>8.2016657680692904E-4</v>
+      </c>
+      <c r="L26" s="5">
+        <v>-8.2016657680692904E-4</v>
+      </c>
+      <c r="M26" s="5">
+        <v>4.2791405345911603E-2</v>
+      </c>
+      <c r="N26" s="5">
+        <v>-5.40936332792167E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="3">
+        <v>-0.56063901955677198</v>
+      </c>
+      <c r="C27" s="3">
+        <v>-3.6761876928344997E-2</v>
+      </c>
+      <c r="D27" s="3">
+        <v>3.6761876928344997E-2</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1.0097784008541999</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.44913938129742792</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5">
+        <v>0.15297378707269599</v>
+      </c>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="3">
+        <v>-0.41757408673489099</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3">
+        <v>3.78222148076185E-2</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3">
+        <v>-0.3797518719272725</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5">
+        <v>0.492967273592057</v>
+      </c>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3">
+        <v>-7.2443761334292395E-2</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3">
+        <v>1.6647366315691901</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1.5922928702348977</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5">
+        <v>-0.203045696848215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="3">
+        <v>8.2016657680692904E-4</v>
+      </c>
+      <c r="C30" s="3">
+        <v>-8.2016657680692904E-4</v>
+      </c>
+      <c r="D30" s="3">
+        <v>4.2791405345911603E-2</v>
+      </c>
+      <c r="E30" s="3">
+        <v>-5.40936332792167E-2</v>
+      </c>
+      <c r="F30" s="3">
+        <v>-1.1302227933305098E-2</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="3">
-        <v>1.1489602236290275</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1.418963321545913</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0.49804127937582188</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1.936624817967592</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3">
-        <v>5.0025896425183545</v>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5">
+        <v>-0.11399373491279099</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.62424641873231124</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1.7280995403118844</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1.3117733422637021</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.8046658191461743</v>
+      </c>
+      <c r="F31" s="3">
+        <v>4.4687851204540721</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="K5:N30">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection sqref="A1:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -2249,52 +2491,52 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1.6432813666258399</v>
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>-0.59691166954488595</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.64794731557663299</v>
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>-6.1642741299689201E-3</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.113815211285253</v>
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>-0.47928695559050799</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4">
-        <v>6.6624676294355201E-2</v>
+      <c r="B5">
+        <v>9.7433962704542507E-2</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2305,125 +2547,125 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4">
-        <v>6.5927395432788305E-2</v>
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.68822637084641303</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4">
-        <v>-5.27378097252649E-2</v>
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>8.2016657680692904E-4</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="4">
-        <v>-0.23660232259553601</v>
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0.117005360075284</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4">
-        <v>-0.454013277086038</v>
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>1.14470948163402E-2</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4">
-        <v>-0.64528233217900299</v>
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>-0.41757408673489099</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0.56486190646069401</v>
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>1.7698894692699501</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0.40271290538354998</v>
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>-0.56063901955677198</v>
       </c>
       <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0.27065570137313499</v>
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>0.51761597855688701</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="4">
-        <v>0.193103527280066</v>
+      <c r="B14">
+        <v>0.40760677411770402</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -2431,206 +2673,206 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0.17397828215347899</v>
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>0.31329596097627499</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="4">
-        <v>-8.0571668277080507E-3</v>
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>-0.17982784414515501</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="4">
-        <v>-0.178291834277303</v>
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>1.30603405436748E-2</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="4">
-        <v>1.4500040092365001</v>
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>0.25498136342837402</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0.65488747119399704</v>
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>-0.20605626054433701</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0.145529176955703</v>
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>-3.3393447821644197E-2</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="4">
-        <v>8.5268122877336705E-2</v>
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>7.2684391356294897E-2</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="4">
-        <v>-6.5927395432788305E-2</v>
+        <v>54</v>
+      </c>
+      <c r="B22">
+        <v>-8.2016657680692904E-4</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4">
-        <v>-7.6376466654939495E-2</v>
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.15297378707269599</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="4">
-        <v>-8.2036454915620102E-2</v>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.492967273592057</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="4">
-        <v>-0.133722214909022</v>
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>-1.14470948163402E-2</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="4">
-        <v>-0.406891526294266</v>
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>-7.2443761334292395E-2</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="4">
-        <v>-0.438253631464259</v>
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>4.3664122834842202E-2</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="4">
-        <v>-0.63443981121682003</v>
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <v>-3.6761876928344997E-2</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="4">
-        <v>0.48731195201257599</v>
+      <c r="B29">
+        <v>0.62835727581918499</v>
       </c>
       <c r="C29" t="s">
         <v>25</v>
@@ -2641,114 +2883,380 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0.45128240012729598</v>
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>-0.28619243224228802</v>
       </c>
       <c r="C30" t="s">
         <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="4">
-        <v>0.383924799016445</v>
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>0.40267020449449897</v>
       </c>
       <c r="C31" t="s">
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="4">
-        <v>0.350980164121175</v>
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>0.26636817909591998</v>
       </c>
       <c r="C32" t="s">
         <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="4">
-        <v>0.26352191905305999</v>
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>-1.30603405436748E-2</v>
       </c>
       <c r="C33" t="s">
         <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="4">
-        <v>0.11542310371357301</v>
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>-8.67388087139692E-3</v>
       </c>
       <c r="C34" t="s">
         <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="4">
-        <v>1.8440498445489201E-2</v>
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>-7.2684391356294897E-2</v>
       </c>
       <c r="C35" t="s">
         <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="4">
-        <v>8.0571668277080507E-3</v>
+        <v>54</v>
+      </c>
+      <c r="B36">
+        <v>4.2791405345911603E-2</v>
       </c>
       <c r="C36" t="s">
         <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="4">
-        <v>-0.14231718534973001</v>
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>2.02139240871352E-2</v>
       </c>
       <c r="C37" t="s">
         <v>25</v>
       </c>
       <c r="D37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38">
+        <v>0.43915336992437998</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39">
+        <v>3.78222148076185E-2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40">
+        <v>-3.3747224147525699E-2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41">
+        <v>-0.14800683907811199</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42">
+        <v>3.6761876928344997E-2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>-0.54906158483118594</v>
+      </c>
+      <c r="C43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44">
+        <v>9.2439201755770598E-2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45">
+        <v>-8.9066599073571603E-2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46">
+        <v>0.145291844803278</v>
+      </c>
+      <c r="C46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47">
+        <v>-0.84183508557071596</v>
+      </c>
+      <c r="C47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>8</v>
+      </c>
+      <c r="B48">
+        <v>8.67388087139692E-3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>-0.53319300940985004</v>
+      </c>
+      <c r="C49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50">
+        <v>-5.40936332792167E-2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51">
+        <v>-0.203045696848215</v>
+      </c>
+      <c r="C51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52">
+        <v>-0.11399373491279099</v>
+      </c>
+      <c r="C52" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53">
+        <v>-8.8327489213213803E-2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54">
+        <v>1.6647366315691901</v>
+      </c>
+      <c r="C54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55">
+        <v>0.35636269243109903</v>
+      </c>
+      <c r="C55" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56">
+        <v>1.0097784008541999</v>
+      </c>
+      <c r="C56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/code/lasso.estimated.coefficients.13Jul2023.xlsx
+++ b/code/lasso.estimated.coefficients.13Jul2023.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,23 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKSPACE\GIT\covid19-eng-lockdown\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5407F62F-FA87-42A1-8C1B-E45DF5732A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C4E3B5-B6DB-4143-8C55-D963874F8BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="lasso.estimated.coefficients.13" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="55">
   <si>
     <t>name</t>
   </si>
@@ -194,7 +207,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -675,13 +688,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -729,7 +741,198 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -743,7 +946,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Won Do Lee" refreshedDate="45120.509738310182" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="55">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Won Do Lee" refreshedDate="45120.509738310182" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="55" xr:uid="{00000000-000A-0000-FFFF-FFFF07000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D56" sheet="lasso.estimated.coefficients.13"/>
   </cacheSource>
@@ -1138,7 +1341,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -1602,11 +1805,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:N31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="H28" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,28 +1876,25 @@
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>0.492967273592057</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>0.492967273592057</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>-0.59691166954488595</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>0.51761597855688701</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <v>0.62835727581918499</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <v>-0.54906158483118594</v>
       </c>
     </row>
@@ -1702,52 +1902,47 @@
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>-0.203045696848215</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>-0.203045696848215</v>
       </c>
       <c r="H6" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4">
         <v>0.43915336992437998</v>
       </c>
-      <c r="N6" s="5"/>
+      <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>0.40760677411770402</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>-0.28619243224228802</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3">
+      <c r="F7">
         <v>0.121414341875416</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5">
+      <c r="K7" s="4"/>
+      <c r="L7" s="4">
         <v>-7.2443761334292395E-2</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5">
+      <c r="M7" s="4"/>
+      <c r="N7" s="4">
         <v>1.6647366315691901</v>
       </c>
     </row>
@@ -1755,22 +1950,19 @@
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>9.2439201755770598E-2</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8">
         <v>9.2439201755770598E-2</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5">
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4">
         <v>0.35636269243109903</v>
       </c>
     </row>
@@ -1778,105 +1970,94 @@
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>-6.1642741299689201E-3</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>0.40267020449449897</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3">
+      <c r="F9">
         <v>0.39650593036453008</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>-0.41757408673489099</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5">
+      <c r="L9" s="4"/>
+      <c r="M9" s="4">
         <v>3.78222148076185E-2</v>
       </c>
-      <c r="N9" s="5"/>
+      <c r="N9" s="4"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>0.26636817909591998</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3">
+      <c r="F10">
         <v>0.26636817909591998</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5">
+      <c r="K10" s="4"/>
+      <c r="L10" s="4">
         <v>4.3664122834842202E-2</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="4">
         <v>-3.3747224147525699E-2</v>
       </c>
-      <c r="N10" s="5"/>
+      <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>0.15297378707269599</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3">
+      <c r="F11">
         <v>0.15297378707269599</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>1.7698894692699501</v>
       </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5">
+      <c r="L11" s="4"/>
+      <c r="M11" s="4">
         <v>-0.14800683907811199</v>
       </c>
-      <c r="N11" s="5"/>
+      <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3">
+      <c r="E12">
         <v>-0.11399373491279099</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12">
         <v>-0.11399373491279099</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>-0.56063901955677198</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <v>-3.6761876928344997E-2</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="4">
         <v>3.6761876928344997E-2</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="4">
         <v>1.0097784008541999</v>
       </c>
     </row>
@@ -1884,92 +2065,90 @@
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>0.68822637084641303</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>7.2684391356294897E-2</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>-7.2684391356294897E-2</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13">
         <v>-0.53319300940985004</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13">
         <v>0.15503336143656299</v>
       </c>
       <c r="H13" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5">
+      <c r="K13" s="4"/>
+      <c r="L13" s="4">
         <v>0.40760677411770402</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="4">
         <v>-0.28619243224228802</v>
       </c>
-      <c r="N13" s="5"/>
+      <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>0.31329596097627499</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3">
+      <c r="E14">
         <v>-8.9066599073571603E-2</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14">
         <v>0.22422936190270337</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <v>-6.1642741299689201E-3</v>
       </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5">
+      <c r="L14" s="4"/>
+      <c r="M14" s="4">
         <v>0.40267020449449897</v>
       </c>
-      <c r="N14" s="5"/>
+      <c r="N14" s="4"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>-0.59691166954488595</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>0.51761597855688701</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15">
         <v>0.62835727581918499</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15">
         <v>-0.54906158483118594</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15">
         <v>1.1102230246251565E-16</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5">
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4">
         <v>9.2439201755770598E-2</v>
       </c>
     </row>
@@ -1977,27 +2156,24 @@
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>0.117005360075284</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3">
+      <c r="F16">
         <v>0.117005360075284</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4">
         <v>0.31329596097627499</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5">
+      <c r="M16" s="4"/>
+      <c r="N16" s="4">
         <v>-8.9066599073571603E-2</v>
       </c>
     </row>
@@ -2005,94 +2181,89 @@
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17">
         <v>1.14470948163402E-2</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17">
         <v>-1.14470948163402E-2</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17">
         <v>2.02139240871352E-2</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17">
         <v>-8.8327489213213803E-2</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17">
         <v>-6.8113565126078607E-2</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5">
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4">
         <v>0.26636817909591998</v>
       </c>
-      <c r="N17" s="5"/>
+      <c r="N17" s="4"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3">
+      <c r="E18">
         <v>0.35636269243109903</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18">
         <v>0.35636269243109903</v>
       </c>
       <c r="H18" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5">
+      <c r="K18" s="4"/>
+      <c r="L18" s="4">
         <v>-0.17982784414515501</v>
       </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3">
+      <c r="C19">
         <v>4.3664122834842202E-2</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19">
         <v>-3.3747224147525699E-2</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3">
+      <c r="F19">
         <v>9.9168986873165027E-3</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="4">
         <v>-0.47928695559050799</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="4">
         <v>1.30603405436748E-2</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="4">
         <v>-1.30603405436748E-2</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="4">
         <v>0.145291844803278</v>
       </c>
     </row>
@@ -2100,30 +2271,30 @@
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20">
         <v>-0.47928695559050799</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20">
         <v>1.30603405436748E-2</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20">
         <v>-1.30603405436748E-2</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20">
         <v>0.145291844803278</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20">
         <v>-0.33399511078722999</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5">
+      <c r="K20" s="4"/>
+      <c r="L20" s="4">
         <v>0.25498136342837402</v>
       </c>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5">
+      <c r="M20" s="4"/>
+      <c r="N20" s="4">
         <v>-0.84183508557071596</v>
       </c>
     </row>
@@ -2131,33 +2302,31 @@
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3">
+      <c r="C21">
         <v>0.25498136342837402</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3">
+      <c r="E21">
         <v>-0.84183508557071596</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21">
         <v>-0.58685372214234199</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="4">
         <v>9.7433962704542507E-2</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="4">
         <v>-0.20605626054433701</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="4">
         <v>-8.67388087139692E-3</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="4">
         <v>8.67388087139692E-3</v>
       </c>
     </row>
@@ -2165,65 +2334,63 @@
       <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22">
         <v>9.7433962704542507E-2</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22">
         <v>-0.20605626054433701</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22">
         <v>-8.67388087139692E-3</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22">
         <v>8.67388087139692E-3</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22">
         <v>-0.1086222978397945</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5">
+      <c r="K22" s="4"/>
+      <c r="L22" s="4">
         <v>-3.3393447821644197E-2</v>
       </c>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23">
         <v>1.7698894692699501</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3">
+      <c r="D23">
         <v>-0.14800683907811199</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3">
+      <c r="F23">
         <v>1.6218826301918381</v>
       </c>
       <c r="H23" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="4">
         <v>0.68822637084641303</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="4">
         <v>7.2684391356294897E-2</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="4">
         <v>-7.2684391356294897E-2</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" s="4">
         <v>-0.53319300940985004</v>
       </c>
     </row>
@@ -2231,13 +2398,10 @@
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3">
+      <c r="D24">
         <v>0.43915336992437998</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3">
+      <c r="F24">
         <v>0.43915336992437998</v>
       </c>
       <c r="H24" t="s">
@@ -2246,45 +2410,42 @@
       <c r="I24" t="s">
         <v>49</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="4">
         <v>0.117005360075284</v>
       </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3">
+      <c r="C25">
         <v>-3.3393447821644197E-2</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3">
+      <c r="F25">
         <v>-3.3393447821644197E-2</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="4">
         <v>1.14470948163402E-2</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="4">
         <v>-1.14470948163402E-2</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="4">
         <v>2.02139240871352E-2</v>
       </c>
-      <c r="N25" s="5">
+      <c r="N25" s="4">
         <v>-8.8327489213213803E-2</v>
       </c>
     </row>
@@ -2292,13 +2453,10 @@
       <c r="A26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3">
+      <c r="C26">
         <v>-0.17982784414515501</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3">
+      <c r="F26">
         <v>-0.17982784414515501</v>
       </c>
       <c r="H26" t="s">
@@ -2307,16 +2465,16 @@
       <c r="J26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="4">
         <v>8.2016657680692904E-4</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="4">
         <v>-8.2016657680692904E-4</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="4">
         <v>4.2791405345911603E-2</v>
       </c>
-      <c r="N26" s="5">
+      <c r="N26" s="4">
         <v>-5.40936332792167E-2</v>
       </c>
     </row>
@@ -2324,78 +2482,74 @@
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27">
         <v>-0.56063901955677198</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27">
         <v>-3.6761876928344997E-2</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27">
         <v>3.6761876928344997E-2</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27">
         <v>1.0097784008541999</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27">
         <v>0.44913938129742792</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5">
+      <c r="K27" s="4"/>
+      <c r="L27" s="4">
         <v>0.15297378707269599</v>
       </c>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28">
         <v>-0.41757408673489099</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3">
+      <c r="D28">
         <v>3.78222148076185E-2</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3">
+      <c r="F28">
         <v>-0.3797518719272725</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5">
+      <c r="K28" s="4"/>
+      <c r="L28" s="4">
         <v>0.492967273592057</v>
       </c>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3">
+      <c r="C29">
         <v>-7.2443761334292395E-2</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3">
+      <c r="E29">
         <v>1.6647366315691901</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29">
         <v>1.5922928702348977</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5">
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4">
         <v>-0.203045696848215</v>
       </c>
     </row>
@@ -2403,28 +2557,28 @@
       <c r="A30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30">
         <v>8.2016657680692904E-4</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30">
         <v>-8.2016657680692904E-4</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30">
         <v>4.2791405345911603E-2</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30">
         <v>-5.40936332792167E-2</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30">
         <v>-1.1302227933305098E-2</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5">
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4">
         <v>-0.11399373491279099</v>
       </c>
     </row>
@@ -2432,25 +2586,636 @@
       <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31">
         <v>0.62424641873231124</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31">
         <v>1.7280995403118844</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31">
         <v>1.3117733422637021</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31">
         <v>0.8046658191461743</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31">
         <v>4.4687851204540721</v>
+      </c>
+    </row>
+    <row r="33" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>52</v>
+      </c>
+      <c r="J33" t="s">
+        <v>53</v>
+      </c>
+      <c r="K33" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" t="s">
+        <v>15</v>
+      </c>
+      <c r="M33" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>4</v>
+      </c>
+      <c r="K34">
+        <f>ABS(K5)</f>
+        <v>0.59691166954488595</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ref="L34:N34" si="0">ABS(L5)</f>
+        <v>0.51761597855688701</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="0"/>
+        <v>0.62835727581918499</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>0.54906158483118594</v>
+      </c>
+    </row>
+    <row r="35" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ref="K35:N35" si="1">ABS(K6)</f>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="1"/>
+        <v>0.43915336992437998</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ref="K36:N36" si="2">ABS(K7)</f>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="2"/>
+        <v>7.2443761334292395E-2</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="2"/>
+        <v>1.6647366315691901</v>
+      </c>
+    </row>
+    <row r="37" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37">
+        <f t="shared" ref="K37:N37" si="3">ABS(K8)</f>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="3"/>
+        <v>0.35636269243109903</v>
+      </c>
+    </row>
+    <row r="38" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K38">
+        <f t="shared" ref="K38:N38" si="4">ABS(K9)</f>
+        <v>0.41757408673489099</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="4"/>
+        <v>3.78222148076185E-2</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ref="K39:N39" si="5">ABS(K10)</f>
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="5"/>
+        <v>4.3664122834842202E-2</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="5"/>
+        <v>3.3747224147525699E-2</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40">
+        <f t="shared" ref="K40:N40" si="6">ABS(K11)</f>
+        <v>1.7698894692699501</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="6"/>
+        <v>0.14800683907811199</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41">
+        <f t="shared" ref="K41:N41" si="7">ABS(K12)</f>
+        <v>0.56063901955677198</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="7"/>
+        <v>3.6761876928344997E-2</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="7"/>
+        <v>3.6761876928344997E-2</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="7"/>
+        <v>1.0097784008541999</v>
+      </c>
+    </row>
+    <row r="42" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" t="s">
+        <v>39</v>
+      </c>
+      <c r="J42" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ref="K42:N42" si="8">ABS(K13)</f>
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="8"/>
+        <v>0.40760677411770402</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="8"/>
+        <v>0.28619243224228802</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>6</v>
+      </c>
+      <c r="K43">
+        <f t="shared" ref="K43:N43" si="9">ABS(K14)</f>
+        <v>6.1642741299689201E-3</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="9"/>
+        <v>0.40267020449449897</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>29</v>
+      </c>
+      <c r="K44">
+        <f t="shared" ref="K44:N44" si="10">ABS(K15)</f>
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="10"/>
+        <v>9.2439201755770598E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>40</v>
+      </c>
+      <c r="J45" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45">
+        <f t="shared" ref="K45:N45" si="11">ABS(K16)</f>
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="11"/>
+        <v>0.31329596097627499</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="11"/>
+        <v>8.9066599073571603E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>41</v>
+      </c>
+      <c r="J46" t="s">
+        <v>26</v>
+      </c>
+      <c r="K46">
+        <f t="shared" ref="K46:N46" si="12">ABS(K17)</f>
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="12"/>
+        <v>0.26636817909591998</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47" t="s">
+        <v>43</v>
+      </c>
+      <c r="J47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47">
+        <f t="shared" ref="K47:N47" si="13">ABS(K18)</f>
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="13"/>
+        <v>0.17982784414515501</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>44</v>
+      </c>
+      <c r="J48" t="s">
+        <v>7</v>
+      </c>
+      <c r="K48">
+        <f t="shared" ref="K48:N48" si="14">ABS(K19)</f>
+        <v>0.47928695559050799</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="14"/>
+        <v>1.30603405436748E-2</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="14"/>
+        <v>1.30603405436748E-2</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="14"/>
+        <v>0.145291844803278</v>
+      </c>
+    </row>
+    <row r="49" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49">
+        <f t="shared" ref="K49:N49" si="15">ABS(K20)</f>
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="15"/>
+        <v>0.25498136342837402</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="15"/>
+        <v>0.84183508557071596</v>
+      </c>
+    </row>
+    <row r="50" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>45</v>
+      </c>
+      <c r="J50" t="s">
+        <v>8</v>
+      </c>
+      <c r="K50">
+        <f t="shared" ref="K50:N50" si="16">ABS(K21)</f>
+        <v>9.7433962704542507E-2</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="16"/>
+        <v>0.20605626054433701</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="16"/>
+        <v>8.67388087139692E-3</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="16"/>
+        <v>8.67388087139692E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>20</v>
+      </c>
+      <c r="K51">
+        <f t="shared" ref="K51:N51" si="17">ABS(K22)</f>
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="17"/>
+        <v>3.3393447821644197E-2</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>47</v>
+      </c>
+      <c r="J52" t="s">
+        <v>9</v>
+      </c>
+      <c r="K52">
+        <f t="shared" ref="K52:N52" si="18">ABS(K23)</f>
+        <v>0.68822637084641303</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="18"/>
+        <v>7.2684391356294897E-2</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="18"/>
+        <v>7.2684391356294897E-2</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="18"/>
+        <v>0.53319300940985004</v>
+      </c>
+    </row>
+    <row r="53" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>48</v>
+      </c>
+      <c r="I53" t="s">
+        <v>49</v>
+      </c>
+      <c r="J53" t="s">
+        <v>10</v>
+      </c>
+      <c r="K53">
+        <f t="shared" ref="K53:N53" si="19">ABS(K24)</f>
+        <v>0.117005360075284</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="I54" t="s">
+        <v>50</v>
+      </c>
+      <c r="J54" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54">
+        <f t="shared" ref="K54:N54" si="20">ABS(K25)</f>
+        <v>1.14470948163402E-2</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="20"/>
+        <v>1.14470948163402E-2</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="20"/>
+        <v>2.02139240871352E-2</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="20"/>
+        <v>8.8327489213213803E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H55" t="s">
+        <v>51</v>
+      </c>
+      <c r="J55" t="s">
+        <v>54</v>
+      </c>
+      <c r="K55">
+        <f t="shared" ref="K55:N55" si="21">ABS(K26)</f>
+        <v>8.2016657680692904E-4</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="21"/>
+        <v>8.2016657680692904E-4</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="21"/>
+        <v>4.2791405345911603E-2</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="21"/>
+        <v>5.40936332792167E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="J56" t="s">
+        <v>21</v>
+      </c>
+      <c r="K56">
+        <f t="shared" ref="K56:N56" si="22">ABS(K27)</f>
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="22"/>
+        <v>0.15297378707269599</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="J57" t="s">
+        <v>22</v>
+      </c>
+      <c r="K57">
+        <f t="shared" ref="K57:N57" si="23">ABS(K28)</f>
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="23"/>
+        <v>0.492967273592057</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="J58" t="s">
+        <v>30</v>
+      </c>
+      <c r="K58">
+        <f t="shared" ref="K58:N58" si="24">ABS(K29)</f>
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="24"/>
+        <v>0.203045696848215</v>
+      </c>
+    </row>
+    <row r="59" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="J59" t="s">
+        <v>31</v>
+      </c>
+      <c r="K59">
+        <f t="shared" ref="K59:N59" si="25">ABS(K30)</f>
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="25"/>
+        <v>0.11399373491279099</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K5:N30">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2461,12 +3226,28 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K35:K59">
+    <cfRule type="top10" dxfId="6" priority="11" rank="3"/>
+    <cfRule type="top10" dxfId="7" priority="7" rank="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35:L59">
+    <cfRule type="top10" dxfId="4" priority="5" rank="5"/>
+    <cfRule type="top10" dxfId="5" priority="6" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M35:M59">
+    <cfRule type="top10" dxfId="3" priority="3" rank="5"/>
+    <cfRule type="top10" dxfId="2" priority="4" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N35:N59">
+    <cfRule type="top10" dxfId="1" priority="1" rank="5"/>
+    <cfRule type="top10" dxfId="0" priority="2" rank="3"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
